--- a/Chapter12/Chapter 12 - Appending and Merging Data.xlsx
+++ b/Chapter12/Chapter 12 - Appending and Merging Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Packt\Chapter 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391169C8-E7AC-4163-ABF8-6720371B7092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0389C66-D2A3-499A-89DC-EA65095807D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{BD1C191F-D744-4B0A-93F4-308B88FAC7E0}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="990" yWindow="345" windowWidth="13380" windowHeight="8175" xr2:uid="{BD1C191F-D744-4B0A-93F4-308B88FAC7E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalized Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -153,13 +153,26 @@
   </si>
   <si>
     <t>Vendors.csv</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +191,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -288,10 +308,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -306,6 +327,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,13 +338,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -332,6 +376,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A942F44-C03F-4ACD-8FE7-9C2AC4068E54}" name="Fruit_Sales" displayName="Fruit_Sales" ref="A1:F15" totalsRowCount="1">
+  <autoFilter ref="A1:F14" xr:uid="{1A942F44-C03F-4ACD-8FE7-9C2AC4068E54}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{EB445B81-53FF-4A54-A15F-BE6A006E4ACF}" name="Product Name" totalsRowLabel="Total" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{55B85558-7A8E-4B05-8FB5-357E370EA5FB}" name="Vendor Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{045E2380-8BB2-40DF-900B-2724092A006A}" name="SaleDate" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{A9250750-FA2A-4F8B-873C-6E1837B1B79F}" name="Quantity" dataDxfId="2" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{D3A99A1C-1B55-4B55-9BBE-4EEAA24E4175}" name="Price" dataDxfId="1" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{5447B207-8DA7-4DF9-AE8E-A0C9BE2EDF8A}" name="Total" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Comma" totalsRowCellStyle="Comma">
+      <calculatedColumnFormula>Fruit_Sales[[#This Row],[Quantity]]*Fruit_Sales[[#This Row],[Price]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,24 +711,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-      <c r="I1" s="14" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="I1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="M1" s="14" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="M1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
@@ -715,7 +776,7 @@
       <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="14">
         <v>45300</v>
       </c>
       <c r="F3" s="2">
@@ -751,7 +812,7 @@
       <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <v>45303</v>
       </c>
       <c r="F4" s="2">
@@ -787,7 +848,7 @@
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <v>45308</v>
       </c>
       <c r="F5" s="2">
@@ -823,7 +884,7 @@
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <v>45310</v>
       </c>
       <c r="F6" s="2">
@@ -859,7 +920,7 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <v>45315</v>
       </c>
       <c r="F7" s="2">
@@ -895,7 +956,7 @@
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="14">
         <v>45317</v>
       </c>
       <c r="F8" s="2">
@@ -924,7 +985,7 @@
       <c r="D9" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <v>45320</v>
       </c>
       <c r="F9" s="5">
@@ -942,11 +1003,11 @@
       <c r="K9" s="3">
         <v>4</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I10" s="1">
@@ -969,14 +1030,14 @@
       </c>
     </row>
     <row r="11" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
       <c r="I11" s="1">
         <v>9</v>
       </c>
@@ -1044,7 +1105,7 @@
       <c r="D13" s="2">
         <v>3</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="14">
         <v>45329</v>
       </c>
       <c r="F13" s="2">
@@ -1073,7 +1134,7 @@
       <c r="D14" s="2">
         <v>4</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="14">
         <v>45333</v>
       </c>
       <c r="F14" s="2">
@@ -1082,11 +1143,11 @@
       <c r="G14" s="3">
         <v>15</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
       <c r="M14" s="1">
         <v>4</v>
       </c>
@@ -1107,7 +1168,7 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="14">
         <v>45337</v>
       </c>
       <c r="F15" s="2">
@@ -1143,7 +1204,7 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="14">
         <v>45345</v>
       </c>
       <c r="F16" s="2">
@@ -1179,7 +1240,7 @@
       <c r="D17" s="2">
         <v>5</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="14">
         <v>45347</v>
       </c>
       <c r="F17" s="2">
@@ -1206,7 +1267,7 @@
       <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="15">
         <v>45348</v>
       </c>
       <c r="F18" s="5">
@@ -1239,12 +1300,328 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959B22E4-FD39-4F58-8B52-74B631DA374F}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="19">
+        <v>45308</v>
+      </c>
+      <c r="D2" s="20">
+        <v>6079</v>
+      </c>
+      <c r="E2" s="20">
+        <v>14</v>
+      </c>
+      <c r="F2" s="20">
+        <f>Fruit_Sales[[#This Row],[Quantity]]*Fruit_Sales[[#This Row],[Price]]</f>
+        <v>85106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="19">
+        <v>45315</v>
+      </c>
+      <c r="D3" s="20">
+        <v>6868</v>
+      </c>
+      <c r="E3" s="20">
+        <v>11</v>
+      </c>
+      <c r="F3" s="20">
+        <f>Fruit_Sales[[#This Row],[Quantity]]*Fruit_Sales[[#This Row],[Price]]</f>
+        <v>75548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="19">
+        <v>45310</v>
+      </c>
+      <c r="D4" s="20">
+        <v>9842</v>
+      </c>
+      <c r="E4" s="20">
+        <v>10</v>
+      </c>
+      <c r="F4" s="20">
+        <f>Fruit_Sales[[#This Row],[Quantity]]*Fruit_Sales[[#This Row],[Price]]</f>
+        <v>98420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="19">
+        <v>45320</v>
+      </c>
+      <c r="D5" s="20">
+        <v>6058</v>
+      </c>
+      <c r="E5" s="20">
+        <v>11</v>
+      </c>
+      <c r="F5" s="20">
+        <f>Fruit_Sales[[#This Row],[Quantity]]*Fruit_Sales[[#This Row],[Price]]</f>
+        <v>66638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="19">
+        <v>45317</v>
+      </c>
+      <c r="D6" s="20">
+        <v>3064</v>
+      </c>
+      <c r="E6" s="20">
+        <v>15</v>
+      </c>
+      <c r="F6" s="20">
+        <f>Fruit_Sales[[#This Row],[Quantity]]*Fruit_Sales[[#This Row],[Price]]</f>
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="19">
+        <v>45303</v>
+      </c>
+      <c r="D7" s="20">
+        <v>6227</v>
+      </c>
+      <c r="E7" s="20">
+        <v>15</v>
+      </c>
+      <c r="F7" s="20">
+        <f>Fruit_Sales[[#This Row],[Quantity]]*Fruit_Sales[[#This Row],[Price]]</f>
+        <v>93405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="19">
+        <v>45300</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1062</v>
+      </c>
+      <c r="E8" s="20">
+        <v>11</v>
+      </c>
+      <c r="F8" s="20">
+        <f>Fruit_Sales[[#This Row],[Quantity]]*Fruit_Sales[[#This Row],[Price]]</f>
+        <v>11682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="19">
+        <v>44603</v>
+      </c>
+      <c r="D9" s="20">
+        <v>8442</v>
+      </c>
+      <c r="E9" s="20">
+        <v>15</v>
+      </c>
+      <c r="F9" s="20">
+        <f>Fruit_Sales[[#This Row],[Quantity]]*Fruit_Sales[[#This Row],[Price]]</f>
+        <v>126630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="19">
+        <v>44615</v>
+      </c>
+      <c r="D10" s="20">
+        <v>7994</v>
+      </c>
+      <c r="E10" s="20">
+        <v>11</v>
+      </c>
+      <c r="F10" s="20">
+        <f>Fruit_Sales[[#This Row],[Quantity]]*Fruit_Sales[[#This Row],[Price]]</f>
+        <v>87934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="19">
+        <v>44607</v>
+      </c>
+      <c r="D11" s="20">
+        <v>7818</v>
+      </c>
+      <c r="E11" s="20">
+        <v>12</v>
+      </c>
+      <c r="F11" s="20">
+        <f>Fruit_Sales[[#This Row],[Quantity]]*Fruit_Sales[[#This Row],[Price]]</f>
+        <v>93816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19">
+        <v>44618</v>
+      </c>
+      <c r="D12" s="20">
+        <v>2605</v>
+      </c>
+      <c r="E12" s="20">
+        <v>12</v>
+      </c>
+      <c r="F12" s="20">
+        <f>Fruit_Sales[[#This Row],[Quantity]]*Fruit_Sales[[#This Row],[Price]]</f>
+        <v>31260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="19">
+        <v>44599</v>
+      </c>
+      <c r="D13" s="20">
+        <v>6850</v>
+      </c>
+      <c r="E13" s="20">
+        <v>10</v>
+      </c>
+      <c r="F13" s="20">
+        <f>Fruit_Sales[[#This Row],[Quantity]]*Fruit_Sales[[#This Row],[Price]]</f>
+        <v>68500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="19">
+        <v>44617</v>
+      </c>
+      <c r="D14" s="20">
+        <v>3064</v>
+      </c>
+      <c r="E14" s="20">
+        <v>12</v>
+      </c>
+      <c r="F14" s="20">
+        <f>Fruit_Sales[[#This Row],[Quantity]]*Fruit_Sales[[#This Row],[Price]]</f>
+        <v>36768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="21">
+        <f>SUBTOTAL(109,Fruit_Sales[Total])</f>
+        <v>921667</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>